--- a/prueba_software_bls.xlsx
+++ b/prueba_software_bls.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>mercado</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -521,6 +526,11 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>E</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://data.bls.gov/dataViewer/view/timeseries/PCU513210513210</t>
         </is>
       </c>
     </row>
@@ -535,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,10 +575,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44927</v>
+        <v>40179</v>
       </c>
       <c r="C2" t="n">
-        <v>117.19</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="3">
@@ -576,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44958</v>
+        <v>40210</v>
       </c>
       <c r="C3" t="n">
-        <v>117.529</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="4">
@@ -587,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44986</v>
+        <v>40238</v>
       </c>
       <c r="C4" t="n">
-        <v>117.766</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="5">
@@ -598,10 +608,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45017</v>
+        <v>40269</v>
       </c>
       <c r="C5" t="n">
-        <v>117.726</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="6">
@@ -609,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45047</v>
+        <v>40299</v>
       </c>
       <c r="C6" t="n">
-        <v>117.818</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +630,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45078</v>
+        <v>40330</v>
       </c>
       <c r="C7" t="n">
-        <v>118.064</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="8">
@@ -631,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45108</v>
+        <v>40360</v>
       </c>
       <c r="C8" t="n">
-        <v>118.355</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="9">
@@ -642,10 +652,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45139</v>
+        <v>40391</v>
       </c>
       <c r="C9" t="n">
-        <v>118.474</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -653,10 +663,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45170</v>
+        <v>40422</v>
       </c>
       <c r="C10" t="n">
-        <v>118.297</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +674,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45200</v>
+        <v>40452</v>
       </c>
       <c r="C11" t="n">
-        <v>118.513</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="12">
@@ -675,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45231</v>
+        <v>40483</v>
       </c>
       <c r="C12" t="n">
-        <v>118.752</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="13">
@@ -686,10 +696,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45261</v>
+        <v>40513</v>
       </c>
       <c r="C13" t="n">
-        <v>119.029</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="14">
@@ -697,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45292</v>
+        <v>40544</v>
       </c>
       <c r="C14" t="n">
-        <v>119.403</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="15">
@@ -708,10 +718,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45323</v>
+        <v>40575</v>
       </c>
       <c r="C15" t="n">
-        <v>119.519</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45352</v>
+        <v>40603</v>
       </c>
       <c r="C16" t="n">
-        <v>119.248</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="17">
@@ -730,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45383</v>
+        <v>40634</v>
       </c>
       <c r="C17" t="n">
-        <v>119.662</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -741,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45413</v>
+        <v>40664</v>
       </c>
       <c r="C18" t="n">
-        <v>120.079</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="19">
@@ -752,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45444</v>
+        <v>40695</v>
       </c>
       <c r="C19" t="n">
-        <v>119.644</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="20">
@@ -763,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45474</v>
+        <v>40725</v>
       </c>
       <c r="C20" t="n">
-        <v>119.863</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -774,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45505</v>
+        <v>40756</v>
       </c>
       <c r="C21" t="n">
-        <v>119.762</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45536</v>
+        <v>40787</v>
       </c>
       <c r="C22" t="n">
-        <v>119.622</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45566</v>
+        <v>40817</v>
       </c>
       <c r="C23" t="n">
-        <v>119.637</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="24">
@@ -807,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45597</v>
+        <v>40848</v>
       </c>
       <c r="C24" t="n">
-        <v>119.398</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -818,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45627</v>
+        <v>40878</v>
       </c>
       <c r="C25" t="n">
-        <v>119.349</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -829,10 +839,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45658</v>
+        <v>40909</v>
       </c>
       <c r="C26" t="n">
-        <v>120.806</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="27">
@@ -840,10 +850,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45689</v>
+        <v>40940</v>
       </c>
       <c r="C27" t="n">
-        <v>122.218</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -851,10 +861,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45717</v>
+        <v>40969</v>
       </c>
       <c r="C28" t="n">
-        <v>121.88</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -862,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45748</v>
+        <v>41000</v>
       </c>
       <c r="C29" t="n">
-        <v>122.102</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="30">
@@ -873,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45778</v>
+        <v>41030</v>
       </c>
       <c r="C30" t="n">
-        <v>124.185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -884,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45809</v>
+        <v>41061</v>
       </c>
       <c r="C31" t="n">
-        <v>123.663</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -895,10 +905,10 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45839</v>
+        <v>41091</v>
       </c>
       <c r="C32" t="n">
-        <v>126.753</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -906,10 +916,10 @@
         <v>13</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45870</v>
+        <v>41122</v>
       </c>
       <c r="C33" t="n">
-        <v>124.91</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +927,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45901</v>
+        <v>41153</v>
       </c>
       <c r="C34" t="n">
-        <v>123.943</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -928,10 +938,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45931</v>
+        <v>41183</v>
       </c>
       <c r="C35" t="n">
-        <v>126.45</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +949,1737 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="n">
+        <v>41214</v>
+      </c>
+      <c r="C36" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="C37" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="C38" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="C39" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="C40" t="n">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="C41" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C42" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="C43" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C44" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="C45" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="C46" t="n">
+        <v>87.59999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>41548</v>
+      </c>
+      <c r="C47" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="C48" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="C49" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="C50" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="C52" t="n">
+        <v>87.90000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C53" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="C54" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C55" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C56" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="C57" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="C58" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="C59" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="C60" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="C61" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C62" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C63" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>13</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="C64" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="C65" t="n">
+        <v>85.90000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>13</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="C67" t="n">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C68" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C69" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="C70" t="n">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="C71" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>13</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="C72" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>13</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C73" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C74" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C75" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="C76" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>42461</v>
+      </c>
+      <c r="C77" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>13</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C79" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C80" t="n">
+        <v>85.90000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C81" t="n">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="C82" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C83" t="n">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>42675</v>
+      </c>
+      <c r="C84" t="n">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C85" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C86" t="n">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>42767</v>
+      </c>
+      <c r="C87" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="C88" t="n">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C89" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C91" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C92" t="n">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C94" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="C95" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C96" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C97" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C98" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>13</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="C99" t="n">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C100" t="n">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C101" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="C102" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>13</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="C103" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C104" t="n">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>13</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="C105" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>13</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C106" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C107" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C108" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C109" t="n">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C110" t="n">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>13</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="C111" t="n">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>13</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="C112" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="C113" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>13</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="C114" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>13</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C115" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>13</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C116" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="C117" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>13</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C118" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>13</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C119" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="C120" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C121" t="n">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>13</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C122" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>13</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C123" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>13</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C124" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C125" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C126" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>13</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C127" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>13</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C128" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>13</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C129" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>13</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C130" t="n">
+        <v>87.59999999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>13</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C131" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C132" t="n">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C133" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C134" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C135" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>13</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C136" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>13</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C137" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>13</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>13</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C139" t="n">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>13</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C140" t="n">
+        <v>87.83799999999999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C141" t="n">
+        <v>87.69199999999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C142" t="n">
+        <v>87.453</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C143" t="n">
+        <v>88.129</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>13</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="C144" t="n">
+        <v>87.977</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>13</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C145" t="n">
+        <v>86.97199999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>13</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C146" t="n">
+        <v>88.098</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C147" t="n">
+        <v>85.477</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>13</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C148" t="n">
+        <v>87.57599999999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>13</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86.146</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>13</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C150" t="n">
+        <v>87.32299999999999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>13</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C151" t="n">
+        <v>87.66500000000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>13</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C152" t="n">
+        <v>88.123</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>13</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C153" t="n">
+        <v>87.476</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>13</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C154" t="n">
+        <v>88.23999999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C155" t="n">
+        <v>87.49299999999999</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>13</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C156" t="n">
+        <v>86.03700000000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>13</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86.58</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>13</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C158" t="n">
+        <v>88.44</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C159" t="n">
+        <v>89.142</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C160" t="n">
+        <v>89.16200000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>13</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C161" t="n">
+        <v>88.673</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>13</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C162" t="n">
+        <v>90.221</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>13</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C163" t="n">
+        <v>90.598</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>13</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C164" t="n">
+        <v>90.81</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>13</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C165" t="n">
+        <v>91.614</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>13</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C166" t="n">
+        <v>91.95399999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>13</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C167" t="n">
+        <v>93.07899999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>13</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C168" t="n">
+        <v>92.048</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>13</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C169" t="n">
+        <v>93.32299999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>13</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C170" t="n">
+        <v>92.94499999999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>13</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C171" t="n">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>13</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C172" t="n">
+        <v>93.18899999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>13</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C173" t="n">
+        <v>94.741</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>13</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C174" t="n">
+        <v>95.19799999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>13</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C175" t="n">
+        <v>96.983</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>13</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C176" t="n">
+        <v>99.81</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>13</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C177" t="n">
+        <v>99.00700000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>13</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C178" t="n">
+        <v>100.039</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>13</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C179" t="n">
+        <v>101.06</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>13</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="C180" t="n">
+        <v>101.378</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>13</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C181" t="n">
+        <v>100.642</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>13</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C182" t="n">
+        <v>100.215</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>13</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C183" t="n">
+        <v>99.61199999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>13</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="C184" t="n">
+        <v>99.52500000000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>13</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C185" t="n">
+        <v>96.53700000000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>13</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C186" t="n">
+        <v>96.172</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>13</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="C187" t="n">
+        <v>95.837</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>13</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C188" t="n">
+        <v>98.514</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>13</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C189" t="n">
+        <v>99.93000000000001</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>13</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="C190" t="n">
+        <v>99.742</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>13</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C191" t="n">
+        <v>102.73</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>13</v>
+      </c>
+      <c r="B192" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="C36" t="n">
-        <v>126.195</v>
+      <c r="C192" t="n">
+        <v>100.54</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>13</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C193" t="n">
+        <v>101.079</v>
       </c>
     </row>
   </sheetData>
